--- a/biology/Médecine/Centre_hospitalier_universitaire_Brugmann/Centre_hospitalier_universitaire_Brugmann.xlsx
+++ b/biology/Médecine/Centre_hospitalier_universitaire_Brugmann/Centre_hospitalier_universitaire_Brugmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le CHU Brugmann est un établissement hospitalier de Bruxelles. L'hôpital est divisé en trois sites :
 le site Victor Horta (siège social situé à Laeken)
 le site Paul Brien (situé à Schaerbeek)
 le site Reine Astrid situé dans une partie de l'Hôpital militaire Reine Astrid (à Neder-over-Heembeek).
-Historiquement le CHU Brugmann comportait également un quatrième site : le site René Magritte, inauguré en 2004[1] à la suite de la reprise d'une institution auparavant exploitée par le CPAS de Jette qui a été fermée en 2007[2] au profit du site Reine Astrid ou les lits hospitaliers ont été transférés.
-Le centre hospitalier est membre du réseau hospitalier IRIS, et constitue dans ce réseau, une partie du pôle OSIRIS[3].
-Le CHU Brugmann est un hôpital universitaire très impliqué dans la recherche et est ainsi le premier producteur d'articles scientifiques du réseau IRIS, avec la publication annuelle de 100 à 200 articles scientifiques. En collaboration avec les facultés universitaires (ULB et VUB) et des Hautes Ecoles (Haute Ecole Francisco Ferrer, Haute Ecole Paul-Henri Spaak,...), il propose également une vingtaine de programmes post-graduat pour médecins spécialistes, ainsi que des stages pour infirmiers, sage-femmes et paramédicaux[4].
+Historiquement le CHU Brugmann comportait également un quatrième site : le site René Magritte, inauguré en 2004 à la suite de la reprise d'une institution auparavant exploitée par le CPAS de Jette qui a été fermée en 2007 au profit du site Reine Astrid ou les lits hospitaliers ont été transférés.
+Le centre hospitalier est membre du réseau hospitalier IRIS, et constitue dans ce réseau, une partie du pôle OSIRIS.
+Le CHU Brugmann est un hôpital universitaire très impliqué dans la recherche et est ainsi le premier producteur d'articles scientifiques du réseau IRIS, avec la publication annuelle de 100 à 200 articles scientifiques. En collaboration avec les facultés universitaires (ULB et VUB) et des Hautes Ecoles (Haute Ecole Francisco Ferrer, Haute Ecole Paul-Henri Spaak,...), il propose également une vingtaine de programmes post-graduat pour médecins spécialistes, ainsi que des stages pour infirmiers, sage-femmes et paramédicaux.
 </t>
         </is>
       </c>
